--- a/lesson_10/output.xlsx
+++ b/lesson_10/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,330 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>File Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Query</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NOT (Device="*floppy*" OR Image IN ("*:\\$WINDOWS.~BT\\*", "*:\\Program Files (x86)\\*", "*:\\Program Files\\*", "*:\\Windows\\CCM\\*", "*:\\Windows\\explorer.exe*", "*:\\Windows\\servicing\\*", "*:\\Windows\\SoftwareDistribution\\*", "*:\\Windows\\System32\\*", "*:\\Windows\\SystemApps\\*", "*:\\Windows\\uus\\*", "*:\\Windows\\WinSxS\\*") OR Image IN ("Registry", "System") OR (Image="*:\\ProgramData\\Microsoft\\Windows Defender\\Platform\\*" Image="*\\MsMpEng.exe") OR (Image="*:\\Users\\*" Image="*\\AppData\\*" Image="*\\Microsoft\\*") OR (Image="*:\\Windows\\Temp\\*" Image IN ("*\\Executables\\SSDUpdate.exe", "*\\HostMetadata\\NVMEHostmetadata.exe")) OR Image!=* OR Image="*:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe") NOT ((Image="*\\AppData\\Local\\GitHubDesktop\\app-*" Image="*\\resources\\app\\git\\mingw64\\bin\\git.exe") OR (Image="*:\\Windows\\Temp\\asgard2-agent\\*" Image="*\\thor.exe") OR Image="*\\AppData\\Local\\Keybase\\upd.exe*")</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>create_remote_thread_win_hktl_cactustorch.yml</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HackTool - CACTUSTORCH Remote Thread Creation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Detects remote thread creation from CACTUSTORCH as described in references.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SourceImage IN ("*\\System32\\cscript.exe", "*\\System32\\wscript.exe", "*\\System32\\mshta.exe", "*\\winword.exe", "*\\excel.exe") TargetImage="*\\SysWOW64\\*" StartModule!=*</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_hktl_cobaltstrike.yml</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HackTool - Potential CobaltStrike Process Injection</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Detects a potential remote threat creation with certain characteristics which are typical for Cobalt Strike beacons</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>StartAddress IN ("*0B80", "*0C7C", "*0C88")</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_keepass.yml</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Remote Thread Created In KeePass.EXE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Detects remote thread creation in "KeePass.exe" which could indicates potential password dumping activity</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TargetImage="*\\KeePass.exe"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_mstsc_susp_location.yml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Remote Thread Creation In Mstsc.Exe From Suspicious Location</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Detects remote thread creation in the "mstsc.exe" process by a process located in a potentially suspicious location.
+This technique is often used by attackers in order to hook some APIs used by DLLs loaded by "mstsc.exe" during RDP authentications in order to steal credentials.
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TargetImage="*\\mstsc.exe" SourceImage IN ("*:\\Temp\\*", "*:\\Users\\Public\\*", "*:\\Windows\\PerfLogs\\*", "*:\\Windows\\Tasks\\*", "*:\\Windows\\Temp\\*", "*\\AppData\\Local\\Temp\\*")</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_powershell_lsass.yml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Potential Credential Dumping Attempt Via PowerShell Remote Thread</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Detects remote thread creation by PowerShell processes into "lsass.exe"</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SourceImage IN ("*\\powershell.exe", "*\\pwsh.exe") TargetImage="*\\lsass.exe"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_powershell_susp_targets.yml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Remote Thread Creation Via PowerShell In Uncommon Target</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Detects the creation of a remote thread from a Powershell process in an uncommon target process</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SourceImage IN ("*\\powershell.exe", "*\\pwsh.exe") TargetImage IN ("*\\rundll32.exe", "*\\regsvr32.exe")</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_susp_password_dumper_lsass.yml</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Password Dumper Remote Thread in LSASS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Detects password dumper activity by monitoring remote thread creation EventID 8 in combination with the lsass.exe process as TargetImage.
+The process in field Process is the malicious program. A single execution can lead to hundreds of events.
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TargetImage="*\\lsass.exe" StartModule=""</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_susp_relevant_source_image.yml</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rare Remote Thread Creation By Uncommon Source Image</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Detects uncommon processes creating remote threads.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SourceImage IN ("*\\bash.exe", "*\\cscript.exe", "*\\cvtres.exe", "*\\defrag.exe", "*\\dnx.exe", "*\\esentutl.exe", "*\\excel.exe", "*\\expand.exe", "*\\find.exe", "*\\findstr.exe", "*\\forfiles.exe", "*\\gpupdate.exe", "*\\hh.exe", "*\\installutil.exe", "*\\lync.exe", "*\\makecab.exe", "*\\mDNSResponder.exe", "*\\monitoringhost.exe", "*\\msbuild.exe", "*\\mshta.exe", "*\\mspaint.exe", "*\\outlook.exe", "*\\ping.exe", "*\\provtool.exe", "*\\python.exe", "*\\regsvr32.exe", "*\\robocopy.exe", "*\\runonce.exe", "*\\sapcimc.exe", "*\\smartscreen.exe", "*\\spoolsv.exe", "*\\tstheme.exe", "*\\userinit.exe", "*\\vssadmin.exe", "*\\vssvc.exe", "*\\w3wp.exe", "*\\winscp.exe", "*\\winword.exe", "*\\wmic.exe", "*\\wscript.exe")</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_susp_uncommon_source_image.yml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Remote Thread Creation By Uncommon Source Image</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Detects uncommon processes creating remote threads.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>selection and not 1 of filter_main_* and not 1 of filter_optional_*</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SourceImage IN ("*\\explorer.exe", "*\\iexplore.exe", "*\\msiexec.exe", "*\\powerpnt.exe", "*\\schtasks.exe", "*\\winlogon.exe") NOT ((SourceImage="*:\\Windows\\System32\\winlogon.exe" TargetImage IN ("*:\\Windows\\System32\\services.exe", "*:\\Windows\\System32\\wininit.exe", "*:\\Windows\\System32\\csrss.exe", "*:\\Windows\\System32\\LogonUI.exe")) OR (SourceImage="*:\\Windows\\System32\\winlogon.exe*" TargetParentProcessId=4) OR (SourceImage IN ("*:\\Windows\\System32\\schtasks.exe", "*:\\Windows\\SysWOW64\\schtasks.exe") TargetImage="*:\\Windows\\System32\\conhost.exe") OR (SourceImage="*:\\Windows\\explorer.exe" TargetImage IN ("*:\\Program Files (x86)\\", "*:\\Program Files\\", "*:\\Windows\\System32\\", "*:\\Windows\\SysWOW64\\")) OR TargetImage="System" OR (SourceImage="*\\msiexec.exe" TargetImage IN ("*\\AppData\\Local\\*", "*:\\Program Files (x86)\\*", "*:\\Program Files\\*"))) NOT ((SourceImage="*:\\Program Files\\internet explorer\\iexplore.exe*" SourceCommandLine="*https://*" SourceCommandLine="*.checkpoint.com/documents/*" SourceCommandLine="*SmartConsole_OLH/*" SourceCommandLine="*default.htm#cshid=*") OR (SourceImage="*:\\Program Files\\internet explorer\\iexplore.exe*" SourceParentImage="*:\\Program Files*" SourceParentImage="*\\CheckPoint\\SmartConsole\\*" SourceParentImage="*\\SmartConsole.exe*") OR (SourceImage="*\\Microsoft Office\\*" SourceImage="*\\POWERPNT.EXE" TargetImage="*:\\Windows\\System32\\csrss.exe"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_susp_uncommon_target_image.yml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Remote Thread Creation In Uncommon Target Image</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Detects uncommon target processes for remote thread creation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>selection and not 1 of filter_main_* and not 1 of filter_optional_*</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TargetImage IN ("*\\calc.exe", "*\\calculator.exe", "*\\mspaint.exe", "*\\notepad.exe", "*\\ping.exe", "*\\sethc.exe", "*\\spoolsv.exe", "*\\wordpad.exe", "*\\write.exe") NOT SourceImage="*:\\Windows\\System32\\csrss.exe" NOT (StartFunction="EtwpNotificationThread" OR SourceImage="*unknown process*" OR (SourceImage="*:\\Program Files\\VMware\\VMware Tools\\vmtoolsd.exe" StartFunction="GetCommandLineW" TargetImage IN ("*:\\Windows\\System32\\notepad.exe", "*:\\Windows\\System32\\spoolsv.exe")) OR (SourceImage="C:\\Program Files\\Xerox\\XeroxPrintExperience\\CommonFiles\\XeroxPrintJobEventManagerService.exe" StartFunction="LoadLibraryW" TargetImage="C:\\Windows\\System32\\spoolsv.exe"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>create_remote_thread_win_ttdinjec.yml</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Remote Thread Creation Ttdinject.exe Proxy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Detects a remote thread creation of Ttdinject.exe used as proxy</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SourceImage="*\\ttdinject.exe"</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/lesson_10/output.xlsx
+++ b/lesson_10/output.xlsx
@@ -481,11 +481,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SourceImage IN ("*\\System32\\cscript.exe", "*\\System32\\wscript.exe", "*\\System32\\mshta.exe", "*\\winword.exe", "*\\excel.exe") TargetImage="*\\SysWOW64\\*" StartModule!=*</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,11 +504,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>StartAddress IN ("*0B80", "*0C7C", "*0C88")</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -535,11 +527,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TargetImage="*\\KeePass.exe"</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,11 +552,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TargetImage="*\\mstsc.exe" SourceImage IN ("*:\\Temp\\*", "*:\\Users\\Public\\*", "*:\\Windows\\PerfLogs\\*", "*:\\Windows\\Tasks\\*", "*:\\Windows\\Temp\\*", "*\\AppData\\Local\\Temp\\*")</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -591,11 +575,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SourceImage IN ("*\\powershell.exe", "*\\pwsh.exe") TargetImage="*\\lsass.exe"</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -618,11 +598,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SourceImage IN ("*\\powershell.exe", "*\\pwsh.exe") TargetImage IN ("*\\rundll32.exe", "*\\regsvr32.exe")</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -647,11 +623,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TargetImage="*\\lsass.exe" StartModule=""</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -674,11 +646,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SourceImage IN ("*\\bash.exe", "*\\cscript.exe", "*\\cvtres.exe", "*\\defrag.exe", "*\\dnx.exe", "*\\esentutl.exe", "*\\excel.exe", "*\\expand.exe", "*\\find.exe", "*\\findstr.exe", "*\\forfiles.exe", "*\\gpupdate.exe", "*\\hh.exe", "*\\installutil.exe", "*\\lync.exe", "*\\makecab.exe", "*\\mDNSResponder.exe", "*\\monitoringhost.exe", "*\\msbuild.exe", "*\\mshta.exe", "*\\mspaint.exe", "*\\outlook.exe", "*\\ping.exe", "*\\provtool.exe", "*\\python.exe", "*\\regsvr32.exe", "*\\robocopy.exe", "*\\runonce.exe", "*\\sapcimc.exe", "*\\smartscreen.exe", "*\\spoolsv.exe", "*\\tstheme.exe", "*\\userinit.exe", "*\\vssadmin.exe", "*\\vssvc.exe", "*\\w3wp.exe", "*\\winscp.exe", "*\\winword.exe", "*\\wmic.exe", "*\\wscript.exe")</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -701,11 +669,7 @@
           <t>selection and not 1 of filter_main_* and not 1 of filter_optional_*</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SourceImage IN ("*\\explorer.exe", "*\\iexplore.exe", "*\\msiexec.exe", "*\\powerpnt.exe", "*\\schtasks.exe", "*\\winlogon.exe") NOT ((SourceImage="*:\\Windows\\System32\\winlogon.exe" TargetImage IN ("*:\\Windows\\System32\\services.exe", "*:\\Windows\\System32\\wininit.exe", "*:\\Windows\\System32\\csrss.exe", "*:\\Windows\\System32\\LogonUI.exe")) OR (SourceImage="*:\\Windows\\System32\\winlogon.exe*" TargetParentProcessId=4) OR (SourceImage IN ("*:\\Windows\\System32\\schtasks.exe", "*:\\Windows\\SysWOW64\\schtasks.exe") TargetImage="*:\\Windows\\System32\\conhost.exe") OR (SourceImage="*:\\Windows\\explorer.exe" TargetImage IN ("*:\\Program Files (x86)\\", "*:\\Program Files\\", "*:\\Windows\\System32\\", "*:\\Windows\\SysWOW64\\")) OR TargetImage="System" OR (SourceImage="*\\msiexec.exe" TargetImage IN ("*\\AppData\\Local\\*", "*:\\Program Files (x86)\\*", "*:\\Program Files\\*"))) NOT ((SourceImage="*:\\Program Files\\internet explorer\\iexplore.exe*" SourceCommandLine="*https://*" SourceCommandLine="*.checkpoint.com/documents/*" SourceCommandLine="*SmartConsole_OLH/*" SourceCommandLine="*default.htm#cshid=*") OR (SourceImage="*:\\Program Files\\internet explorer\\iexplore.exe*" SourceParentImage="*:\\Program Files*" SourceParentImage="*\\CheckPoint\\SmartConsole\\*" SourceParentImage="*\\SmartConsole.exe*") OR (SourceImage="*\\Microsoft Office\\*" SourceImage="*\\POWERPNT.EXE" TargetImage="*:\\Windows\\System32\\csrss.exe"))</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -728,11 +692,7 @@
           <t>selection and not 1 of filter_main_* and not 1 of filter_optional_*</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TargetImage IN ("*\\calc.exe", "*\\calculator.exe", "*\\mspaint.exe", "*\\notepad.exe", "*\\ping.exe", "*\\sethc.exe", "*\\spoolsv.exe", "*\\wordpad.exe", "*\\write.exe") NOT SourceImage="*:\\Windows\\System32\\csrss.exe" NOT (StartFunction="EtwpNotificationThread" OR SourceImage="*unknown process*" OR (SourceImage="*:\\Program Files\\VMware\\VMware Tools\\vmtoolsd.exe" StartFunction="GetCommandLineW" TargetImage IN ("*:\\Windows\\System32\\notepad.exe", "*:\\Windows\\System32\\spoolsv.exe")) OR (SourceImage="C:\\Program Files\\Xerox\\XeroxPrintExperience\\CommonFiles\\XeroxPrintJobEventManagerService.exe" StartFunction="LoadLibraryW" TargetImage="C:\\Windows\\System32\\spoolsv.exe"))</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -755,11 +715,7 @@
           <t>selection</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SourceImage="*\\ttdinject.exe"</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
